--- a/medicine/Enfance/À_travers_l'univers_(collection)/À_travers_l'univers_(collection).xlsx
+++ b/medicine/Enfance/À_travers_l'univers_(collection)/À_travers_l'univers_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_travers_l%27univers_(collection)</t>
+          <t>À_travers_l'univers_(collection)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À travers l'univers est une collection hebdomadaire de romans destinés à la jeunesse paraissant le samedi, éditée par la Librairie Jules Tallandier[1], lancée à partir du 2 juillet 1932, au prix de 2,75 francs l'exemplaire[2]. 
-Elle fait suite à la collection « Voyages lointains et aventures étranges » lancée en 1927[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À travers l'univers est une collection hebdomadaire de romans destinés à la jeunesse paraissant le samedi, éditée par la Librairie Jules Tallandier, lancée à partir du 2 juillet 1932, au prix de 2,75 francs l'exemplaire. 
+Elle fait suite à la collection « Voyages lointains et aventures étranges » lancée en 1927.
 Cette nouvelle collection numérotée comprend deux séries, paraissant un samedi sur deux : la première s'intitule « Aventures étranges - Voyages lointains » (AEVL), privilégiant l'imaginaire, le fantastique voire la science-fiction, la seconde, « Aventures vécues de mer et d'outre-mer » (AVMO), centrée sur les voyages et l'exotisme inspirés de faits historiques. Les 9 premiers numéros portent uniquement le label « Aventures étranges - Voyages lointains », puis, à partir du 7 septembre 1932, les mentions alternent. 
 Les premières illustrations de couverture sont signées Maurice Toussaint (M. T.).
 Le 15 mai 1933, la série « Aventures vécues de mer et d'outre-mer » devient une collection à part, la numérotation reprenant à partir du numéro 1.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_travers_l%27univers_(collection)</t>
+          <t>À_travers_l'univers_(collection)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1932-1933 (45 titres)
-1. Le Tour du monde d'un gamin de Paris par Louis Boussenard
+          <t>1932-1933 (45 titres)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1. Le Tour du monde d'un gamin de Paris par Louis Boussenard
 2. Surcouf, roi des corsaires par Arthur Bernède
 3. Les coureurs de Llanos par Henry Leturque
 4. Vent-en-Panne, corsaire, par Jean Normand
@@ -563,9 +580,43 @@
 42. Les pèlerins de l'inconnu par Jean Normand
 43. Morok, l'orang-outang par Maurice de Moulins
 44. Duquesne l'intraitable par Charles Beaulieu
-45. Les Mystères du Mas Perdu par Jean Clairsange
-Nouvelle série publiée à partir du 15 mai 1933 (22 titres)
-1. Savorgnan de Brazza au Congo par Pierre Mariel
+45. Les Mystères du Mas Perdu par Jean Clairsange</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>À_travers_l'univers_(collection)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_travers_l%27univers_(collection)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Titres publiés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouvelle série publiée à partir du 15 mai 1933 (22 titres)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1. Savorgnan de Brazza au Congo par Pierre Mariel
 2. Sur la route du Niger par Jean d'Arjanse
 3. Les Aventures de Jacques Cartier par José Douro
 4. Le Napoléon du Cap, Cecil Rhodes par Pierre Dukay
@@ -586,9 +637,43 @@
 19. Cervantès chez les pirates d'Alger par Pierre Marcel
 20. La Loi du talion. La Vengeance de Dominique de Gourgues par José Douro
 21. Les conquérants du Gabon par Jean d'Arjanse
-22. Tourville « le Roi-soleil de la marine » par Charles Beaulieu (13 janvier 1934)
-Titres non numérotés (après janvier 1934)
-1935
+22. Tourville « le Roi-soleil de la marine » par Charles Beaulieu (13 janvier 1934)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>À_travers_l'univers_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_travers_l%27univers_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres publiés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Titres non numérotés (après janvier 1934)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1935
 Uraga le forban par Thomas Mayne Reid
 1936
 Le Carré diabolique par Georges Le Faure
